--- a/datos/precios/Precio_Bolsa_Nacional_($kwh)_1998.xlsx
+++ b/datos/precios/Precio_Bolsa_Nacional_($kwh)_1998.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JetDrive/GitHub/ETVL-IPython/Taller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Docs UNAL\2019-II\RNA\evaluacion-vdjaramillo-master\datos\precios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="440" windowWidth="16520" windowHeight="9460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14244" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145620" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -333,6 +330,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -624,16 +624,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:Y391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="A376" sqref="A376:Y391"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="A370" sqref="A370:XFD391"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -689,7 +689,7 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>35796</v>
       </c>
@@ -843,7 +843,7 @@
         <v>121.59692</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>35797</v>
       </c>
@@ -920,7 +920,7 @@
         <v>126.83192</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>35798</v>
       </c>
@@ -997,7 +997,7 @@
         <v>107.73992</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>35799</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>92.300920000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>35800</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>126.74491999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>35801</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>126.34892000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>35802</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>127.27392</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>35803</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>128.58892</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>35804</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>122.70792</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>35805</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>129.83792</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>35806</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>92.742919999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>35807</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>124.78492</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>35808</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>118.80692000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>35809</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>122.31292000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>35810</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>123.23092</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>35811</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>124.11691999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>35812</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>124.68092</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>35813</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>137.48591999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>35814</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>123.18892</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>35815</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>124.46792000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>35816</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>118.85791999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>35817</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>171.03092000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>35818</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>144.49392</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>35819</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>151.39792</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>35820</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>146.89691999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>35821</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>146.62891999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>35822</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>147.58091999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>35823</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>125.12492</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>35824</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>126.35692</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>35825</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>132.46992</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35826</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>127.20992</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35827</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>122.26176</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35828</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>129.21876</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35829</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>132.64375999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>35830</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>134.29776000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>35831</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>136.19875999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>35832</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>134.87576000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>35833</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>136.87876</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>35834</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>115.82176</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>35835</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>193.38076000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>35836</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>151.29375999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>35837</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>175.16676000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>35838</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>115.47275999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>35839</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>136.65776</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>35840</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>218.21776</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>35841</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>214.77475999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>35842</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>108.71675999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>35843</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>113.33476</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>35844</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>113.38076</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>35845</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>118.73676</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>35846</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>117.65076000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>35847</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>87.996759999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>35848</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>92.348759999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>35849</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>93.107759999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>35850</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>86.486760000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>35851</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>102.42476000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>35852</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>102.88576</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>35853</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>103.37576</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>35854</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>102.45976</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>35855</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>94.549809999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>35856</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>112.09281</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>35857</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>99.003810000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>35858</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>100.66280999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>35859</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>79.009810000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>35860</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>93.965810000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>35861</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>97.674809999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>35862</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>85.800809999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>35863</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>97.941810000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>35864</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>94.050809999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>35865</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>97.734809999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>35866</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>91.647810000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>35867</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>87.594809999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>35868</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>81.000810000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>35869</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>83.021810000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>35870</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>91.313810000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>35871</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>82.410809999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>35872</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>82.666809999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>35873</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>97.567809999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>35874</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>98.035809999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>35875</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>98.278809999999993</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>35876</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>88.296809999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>35877</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>88.910809999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>35878</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>87.84881</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>35879</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>84.172809999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>35880</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>76.616810000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>35881</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>77.881810000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>35882</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>77.862809999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>35883</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>82.138810000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>35884</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>67.83681</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>35885</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>81.165809999999993</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>35886</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>84.464910000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>35887</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>72.536910000000006</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>35888</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>68.721909999999994</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>35889</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>64.111909999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>35890</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>64.549909999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>35891</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>56.50591</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>35892</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>59.036909999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>35893</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>55.145910000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>35894</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>55.145910000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>35895</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>55.145910000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>35896</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>56.145910000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>35897</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>55.145910000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>35898</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>55.145910000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>35899</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>55.145910000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>35900</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>55.145910000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>35901</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>56.145910000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>35902</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>55.145910000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>35903</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>54.145910000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>35904</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>49.145910000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>35905</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>52.145910000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>35906</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>49.145910000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>35907</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>46.645910000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>35908</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>44.145910000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>35909</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>40.195909999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>35910</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>36.345910000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>35911</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>34.145910000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>35912</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>30.205909999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>35913</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>29.248909999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>35914</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>32.145910000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>35915</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>33.145910000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>35916</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>30.47766</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>35917</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>32.577660000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>35918</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>30.47766</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>35919</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>29.99166</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>35920</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>23.47766</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>35921</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>22.72766</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>35922</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>24.46566</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>35923</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>29.47766</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>35924</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>20.97766</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>35925</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>20.97766</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>35926</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>20.97766</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>35927</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>23.020659999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>35928</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>27.037659999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>35929</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>23.47766</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>35930</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>29.47766</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>35931</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>27.97766</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>35932</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>27.177659999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>35933</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>28.677659999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>35934</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>24.47766</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>35935</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>25.47766</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>35936</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>25.47766</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>35937</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>21.47766</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>35938</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>21.47766</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>35939</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>23.47766</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>35940</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>24.377659999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>35941</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>28.47766</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>35942</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>27.147659999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>35943</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>23.47766</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>35944</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>19.577660000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>35945</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>17.49766</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>35946</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>17.47766</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>35947</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>17.982240000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>35948</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>19.212240000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>35949</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>17.482240000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>35950</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>17.29224</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>35951</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>17.782240000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>35952</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>19.082239999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>35953</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>19.082239999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>35954</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>17.93224</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>35955</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>17.93224</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>35956</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>17.762239999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>35957</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>18.482240000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>35958</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>17.482240000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>35959</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>18.482240000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>35960</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>17.482240000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>35961</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>17.282240000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>35962</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>17.332239999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>35963</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>17.18224</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>35964</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>17.18224</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>35965</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>17.18224</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>35966</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>17.18224</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>35967</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>17.172239999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>35968</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>16.982240000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>35969</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>17.032240000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>35970</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>16.982240000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>35971</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>16.982240000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>35972</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>17.142240000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>35973</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>18.982240000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>35974</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>17.032240000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>35975</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>14.19224</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>35976</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>17.152239999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>35977</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>17.674330000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>35978</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>17.724329999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>35979</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>17.274329999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>35980</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>17.71433</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>35981</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>15.674329999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>35982</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>16.654330000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>35983</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>15.57433</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>35984</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>16.654330000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>35985</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>18.684329999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>35986</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>16.674330000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>35987</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>15.566330000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>35988</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>15.566330000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>35989</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>15.566330000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>35990</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>35991</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>35992</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>20.674330000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>35993</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>35994</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>35995</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>35996</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>35997</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>35998</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>35999</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>36000</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>36001</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>36002</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>36003</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>19.474329999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>36004</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>36005</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>15.566330000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>36006</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>13.847329999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>36007</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>19.474329999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>36008</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>36009</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>36010</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>36011</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>36012</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>36013</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>14.587859999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>36014</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>36015</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>36016</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>36017</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>36018</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>36019</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>36020</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>21.005859999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>36021</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>16.30686</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>36022</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>21.025860000000002</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>36023</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>16.405860000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>36024</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>36025</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>16.405860000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>36026</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>36027</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>36028</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>36029</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>21.10586</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>36030</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>16.405860000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>36031</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>21.104859999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>36032</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>36033</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>36034</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>19.905860000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>36035</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>21.095859999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>36036</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>24.235859999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>36037</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>21.60586</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>36038</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>24.10586</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>36039</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>25.067399999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>36040</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>25.147400000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>36041</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>24.967400000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>36042</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>21.817399999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>36043</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>24.817399999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>36044</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>21.816400000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>36045</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>22.4574</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>36046</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>24.697399999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>36047</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>24.6174</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>36048</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>27.017399999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>36049</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>27.017399999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>36050</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>27.817399999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>36051</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>17.750399999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>36052</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>17.750399999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>36053</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>16.031400000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>36054</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>18.767399999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>36055</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>17.749400000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>36056</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>19.217400000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>36057</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>18.817399999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>36058</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>17.7514</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>36059</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>18.807400000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>36060</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>18.807400000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>36061</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>17.817399999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>36062</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>21.817399999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>36063</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>21.817399999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>36064</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>21.717400000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>36065</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>19.817399999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>36066</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>24.317399999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>36067</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>24.317399999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>36068</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>24.357399999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>36069</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>22.666820000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>36070</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>22.716820000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>36071</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>22.716820000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>36072</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>20.216820000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>36073</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>20.216820000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>36074</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>20.216820000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>36075</v>
       </c>
@@ -22326,7 +22326,7 @@
         <v>22.656820000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>36076</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>20.216820000000002</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>36077</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>21.736820000000002</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>36078</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>27.716820000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>36079</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>21.256820000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>36080</v>
       </c>
@@ -22711,7 +22711,7 @@
         <v>23.766820000000003</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>36081</v>
       </c>
@@ -22788,7 +22788,7 @@
         <v>21.216820000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>36082</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>21.216820000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>36083</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>22.716820000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>36084</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>25.216820000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>36085</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>22.716820000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>36086</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>22.716820000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>36087</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>24.216820000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>36088</v>
       </c>
@@ -23327,7 +23327,7 @@
         <v>24.216820000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>36089</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>24.716820000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>36090</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>24.716820000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>36091</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>22.616820000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>36092</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>24.716820000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>36093</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>22.416820000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>36094</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>23.216820000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>36095</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>23.216820000000002</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>36096</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>21.716820000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>36097</v>
       </c>
@@ -24020,7 +24020,7 @@
         <v>21.216820000000002</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>36098</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>20.716820000000002</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>36099</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>21.716820000000002</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>36100</v>
       </c>
@@ -24251,7 +24251,7 @@
         <v>19.900290000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>36101</v>
       </c>
@@ -24328,7 +24328,7 @@
         <v>19.900290000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>36102</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>19.900290000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>36103</v>
       </c>
@@ -24482,7 +24482,7 @@
         <v>19.900290000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>36104</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>26.400290000000005</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>36105</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>24.200289999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>36106</v>
       </c>
@@ -24713,7 +24713,7 @@
         <v>28.900290000000005</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>36107</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>22.350290000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>36108</v>
       </c>
@@ -24867,7 +24867,7 @@
         <v>22.020289999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>36109</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>22.900290000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>36110</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>20.07029</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>36111</v>
       </c>
@@ -25098,7 +25098,7 @@
         <v>19.900290000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>36112</v>
       </c>
@@ -25175,7 +25175,7 @@
         <v>22.900290000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>36113</v>
       </c>
@@ -25252,7 +25252,7 @@
         <v>19.80029</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>36114</v>
       </c>
@@ -25329,7 +25329,7 @@
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>36115</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>19.600290000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>36116</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>18.80029</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>36117</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>23.900290000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>36118</v>
       </c>
@@ -25637,7 +25637,7 @@
         <v>20.400290000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>36119</v>
       </c>
@@ -25714,7 +25714,7 @@
         <v>22.400290000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>36120</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>18.534290000000002</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>36121</v>
       </c>
@@ -25868,7 +25868,7 @@
         <v>18.900290000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>36122</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>18.900290000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>36123</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>18.534290000000002</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>36124</v>
       </c>
@@ -26099,7 +26099,7 @@
         <v>23.80029</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>36125</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>23.80029</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>36126</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>23.80029</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>36127</v>
       </c>
@@ -26330,7 +26330,7 @@
         <v>28.900290000000005</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>36128</v>
       </c>
@@ -26407,7 +26407,7 @@
         <v>26.900290000000005</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>36129</v>
       </c>
@@ -26484,7 +26484,7 @@
         <v>20.900290000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>36130</v>
       </c>
@@ -26561,7 +26561,7 @@
         <v>29.146150000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>36131</v>
       </c>
@@ -26638,7 +26638,7 @@
         <v>28.646150000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>36132</v>
       </c>
@@ -26715,7 +26715,7 @@
         <v>26.646150000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>36133</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>25.146150000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>36134</v>
       </c>
@@ -26869,7 +26869,7 @@
         <v>20.146150000000002</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>36135</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>21.146150000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>36136</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>20.646150000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>36137</v>
       </c>
@@ -27100,7 +27100,7 @@
         <v>20.146150000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>36138</v>
       </c>
@@ -27177,7 +27177,7 @@
         <v>19.82</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>36139</v>
       </c>
@@ -27254,7 +27254,7 @@
         <v>19.821149999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>36140</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>24.146150000000002</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>36141</v>
       </c>
@@ -27408,7 +27408,7 @@
         <v>24.146150000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>36142</v>
       </c>
@@ -27485,7 +27485,7 @@
         <v>20.146150000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>36143</v>
       </c>
@@ -27562,7 +27562,7 @@
         <v>20.646150000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>36144</v>
       </c>
@@ -27639,7 +27639,7 @@
         <v>23.146150000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>36145</v>
       </c>
@@ -27716,7 +27716,7 @@
         <v>21.146150000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>36146</v>
       </c>
@@ -27793,7 +27793,7 @@
         <v>21.146150000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>36147</v>
       </c>
@@ -27870,7 +27870,7 @@
         <v>21.146150000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>36148</v>
       </c>
@@ -27947,7 +27947,7 @@
         <v>23.146150000000002</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>36149</v>
       </c>
@@ -28024,7 +28024,7 @@
         <v>19.81915</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>36150</v>
       </c>
@@ -28101,7 +28101,7 @@
         <v>21.146150000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>36151</v>
       </c>
@@ -28178,7 +28178,7 @@
         <v>21.146150000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>36152</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>19.81915</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>36153</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>19.821149999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>36154</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>19.821149999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>36155</v>
       </c>
@@ -28486,7 +28486,7 @@
         <v>24.646150000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>36156</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>24.646150000000002</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>36157</v>
       </c>
@@ -28640,7 +28640,7 @@
         <v>19.817150000000002</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>36158</v>
       </c>
@@ -28717,7 +28717,7 @@
         <v>19.817150000000002</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>36159</v>
       </c>
@@ -28794,7 +28794,7 @@
         <v>19.817150000000002</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>36160</v>
       </c>
@@ -28871,1691 +28871,599 @@
         <v>24.646150000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A370" s="2">
-        <v>35798</v>
-      </c>
-      <c r="B370" s="5">
-        <v>124.77092</v>
-      </c>
+    <row r="370" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A370" s="2"/>
+      <c r="B370" s="5"/>
       <c r="C370" s="5"/>
-      <c r="D370" s="5">
-        <v>124.39292</v>
-      </c>
-      <c r="E370" s="5">
-        <v>124.39292</v>
-      </c>
-      <c r="F370" s="5">
-        <v>124.77092</v>
-      </c>
-      <c r="G370" s="5">
-        <v>124.39292</v>
-      </c>
-      <c r="H370" s="5">
-        <v>124.77092</v>
-      </c>
-      <c r="I370" s="5">
-        <v>125.64991999999999</v>
-      </c>
-      <c r="J370" s="5">
-        <v>126.28992</v>
-      </c>
-      <c r="K370" s="5">
-        <v>131.54491999999999</v>
-      </c>
-      <c r="L370" s="5">
-        <v>131.54491999999999</v>
-      </c>
-      <c r="M370" s="5">
-        <v>131.54491999999999</v>
-      </c>
-      <c r="N370" s="5">
-        <v>126.23392</v>
-      </c>
-      <c r="O370" s="5">
-        <v>126.23392</v>
-      </c>
-      <c r="P370" s="5">
-        <v>126.23392</v>
-      </c>
-      <c r="Q370" s="5">
-        <v>114.23092</v>
-      </c>
-      <c r="R370" s="5">
-        <v>114.23092</v>
-      </c>
-      <c r="S370" s="5">
-        <v>126.23392</v>
-      </c>
-      <c r="T370" s="5">
-        <v>138.75891999999999</v>
-      </c>
-      <c r="U370" s="5">
-        <v>138.75891999999999</v>
-      </c>
-      <c r="V370" s="5">
-        <v>138.75891999999999</v>
-      </c>
-      <c r="W370" s="5">
-        <v>130.38692</v>
-      </c>
-      <c r="X370" s="5">
-        <v>126.23392</v>
-      </c>
-      <c r="Y370" s="5">
-        <v>107.73992</v>
-      </c>
-    </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A371" s="2">
-        <v>35799</v>
-      </c>
-      <c r="B371" s="5">
-        <v>107.22992000000001</v>
-      </c>
-      <c r="C371" s="5">
-        <v>106.80392000000001</v>
-      </c>
-      <c r="D371" s="5">
-        <v>106.80392000000001</v>
-      </c>
-      <c r="E371" s="5">
-        <v>106.80392000000001</v>
-      </c>
-      <c r="F371" s="5">
-        <v>107.22992000000001</v>
-      </c>
-      <c r="G371" s="5">
-        <v>106.80392000000001</v>
-      </c>
-      <c r="H371" s="5">
-        <v>107.22992000000001</v>
-      </c>
-      <c r="I371" s="5">
-        <v>107.22992000000001</v>
-      </c>
-      <c r="J371" s="5">
-        <v>112.86292</v>
-      </c>
-      <c r="K371" s="5">
-        <v>132.62392</v>
-      </c>
-      <c r="L371" s="5">
-        <v>132.62392</v>
-      </c>
-      <c r="M371" s="5">
-        <v>132.62392</v>
-      </c>
-      <c r="N371" s="5">
-        <v>127.35492000000001</v>
-      </c>
-      <c r="O371" s="5">
-        <v>100.73492</v>
-      </c>
-      <c r="P371" s="5">
-        <v>92.765919999999994</v>
-      </c>
-      <c r="Q371" s="5">
-        <v>92.765919999999994</v>
-      </c>
-      <c r="R371" s="5">
-        <v>92.765919999999994</v>
-      </c>
-      <c r="S371" s="5">
-        <v>92.765919999999994</v>
-      </c>
-      <c r="T371" s="5">
-        <v>137.30292</v>
-      </c>
-      <c r="U371" s="5">
-        <v>137.30292</v>
-      </c>
-      <c r="V371" s="5">
-        <v>137.30292</v>
-      </c>
-      <c r="W371" s="5">
-        <v>128.83392000000001</v>
-      </c>
-      <c r="X371" s="5">
-        <v>127.35492000000001</v>
-      </c>
-      <c r="Y371" s="5">
-        <v>92.300920000000005</v>
-      </c>
-    </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A372" s="2">
-        <v>35800</v>
-      </c>
-      <c r="B372" s="5">
-        <v>92.178920000000005</v>
-      </c>
-      <c r="C372" s="5">
-        <v>91.711920000000006</v>
-      </c>
-      <c r="D372" s="5">
-        <v>91.711920000000006</v>
-      </c>
-      <c r="E372" s="5">
-        <v>91.711920000000006</v>
-      </c>
-      <c r="F372" s="5">
-        <v>92.178920000000005</v>
-      </c>
-      <c r="G372" s="5">
-        <v>91.711920000000006</v>
-      </c>
-      <c r="H372" s="5">
-        <v>125.87891999999999</v>
-      </c>
-      <c r="I372" s="5">
-        <v>126.38692</v>
-      </c>
-      <c r="J372" s="5">
-        <v>126.38692</v>
-      </c>
-      <c r="K372" s="5">
-        <v>133.15191999999999</v>
-      </c>
-      <c r="L372" s="5">
-        <v>133.15191999999999</v>
-      </c>
-      <c r="M372" s="5">
-        <v>133.15191999999999</v>
-      </c>
-      <c r="N372" s="5">
-        <v>127.88292</v>
-      </c>
-      <c r="O372" s="5">
-        <v>127.88292</v>
-      </c>
-      <c r="P372" s="5">
-        <v>127.88292</v>
-      </c>
-      <c r="Q372" s="5">
-        <v>127.88292</v>
-      </c>
-      <c r="R372" s="5">
-        <v>127.88292</v>
-      </c>
-      <c r="S372" s="5">
-        <v>127.88292</v>
-      </c>
-      <c r="T372" s="5">
-        <v>139.65791999999999</v>
-      </c>
-      <c r="U372" s="5">
-        <v>139.65791999999999</v>
-      </c>
-      <c r="V372" s="5">
-        <v>139.65791999999999</v>
-      </c>
-      <c r="W372" s="5">
-        <v>128.54892000000001</v>
-      </c>
-      <c r="X372" s="5">
-        <v>127.88292</v>
-      </c>
-      <c r="Y372" s="5">
-        <v>126.74491999999999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A373" s="2">
-        <v>35801</v>
-      </c>
-      <c r="B373" s="5">
-        <v>124.45192</v>
-      </c>
-      <c r="C373" s="5">
-        <v>124.07092</v>
-      </c>
-      <c r="D373" s="5">
-        <v>124.07092</v>
-      </c>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5"/>
+      <c r="K370" s="5"/>
+      <c r="L370" s="5"/>
+      <c r="M370" s="5"/>
+      <c r="N370" s="5"/>
+      <c r="O370" s="5"/>
+      <c r="P370" s="5"/>
+      <c r="Q370" s="5"/>
+      <c r="R370" s="5"/>
+      <c r="S370" s="5"/>
+      <c r="T370" s="5"/>
+      <c r="U370" s="5"/>
+      <c r="V370" s="5"/>
+      <c r="W370" s="5"/>
+      <c r="X370" s="5"/>
+      <c r="Y370" s="5"/>
+    </row>
+    <row r="371" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A371" s="2"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
+      <c r="J371" s="5"/>
+      <c r="K371" s="5"/>
+      <c r="L371" s="5"/>
+      <c r="M371" s="5"/>
+      <c r="N371" s="5"/>
+      <c r="O371" s="5"/>
+      <c r="P371" s="5"/>
+      <c r="Q371" s="5"/>
+      <c r="R371" s="5"/>
+      <c r="S371" s="5"/>
+      <c r="T371" s="5"/>
+      <c r="U371" s="5"/>
+      <c r="V371" s="5"/>
+      <c r="W371" s="5"/>
+      <c r="X371" s="5"/>
+      <c r="Y371" s="5"/>
+    </row>
+    <row r="372" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A372" s="2"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="5"/>
+      <c r="J372" s="5"/>
+      <c r="K372" s="5"/>
+      <c r="L372" s="5"/>
+      <c r="M372" s="5"/>
+      <c r="N372" s="5"/>
+      <c r="O372" s="5"/>
+      <c r="P372" s="5"/>
+      <c r="Q372" s="5"/>
+      <c r="R372" s="5"/>
+      <c r="S372" s="5"/>
+      <c r="T372" s="5"/>
+      <c r="U372" s="5"/>
+      <c r="V372" s="5"/>
+      <c r="W372" s="5"/>
+      <c r="X372" s="5"/>
+      <c r="Y372" s="5"/>
+    </row>
+    <row r="373" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A373" s="2"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
       <c r="E373" s="5"/>
-      <c r="F373" s="5">
-        <v>124.45192</v>
-      </c>
-      <c r="G373" s="5">
-        <v>125.02292</v>
-      </c>
-      <c r="H373" s="5">
-        <v>125.02292</v>
-      </c>
-      <c r="I373" s="5">
-        <v>125.45792</v>
-      </c>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
       <c r="J373" s="5"/>
-      <c r="K373" s="5">
-        <v>130.52191999999999</v>
-      </c>
-      <c r="L373" s="5">
-        <v>136.32192000000001</v>
-      </c>
-      <c r="M373" s="5">
-        <v>136.32192000000001</v>
-      </c>
-      <c r="N373" s="5">
-        <v>131.17792</v>
-      </c>
-      <c r="O373" s="5">
-        <v>130.48591999999999</v>
-      </c>
-      <c r="P373" s="5">
-        <v>130.48591999999999</v>
-      </c>
-      <c r="Q373" s="5">
-        <v>130.48591999999999</v>
-      </c>
-      <c r="R373" s="5">
-        <v>130.48591999999999</v>
-      </c>
-      <c r="S373" s="5">
-        <v>130.48591999999999</v>
-      </c>
-      <c r="T373" s="5">
-        <v>139.53692000000001</v>
-      </c>
-      <c r="U373" s="5">
-        <v>161.19291999999999</v>
-      </c>
-      <c r="V373" s="5">
-        <v>139.53692000000001</v>
-      </c>
-      <c r="W373" s="5">
-        <v>131.17792</v>
-      </c>
-      <c r="X373" s="5">
-        <v>129.53291999999999</v>
-      </c>
-      <c r="Y373" s="5">
-        <v>126.34892000000001</v>
-      </c>
-    </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A374" s="2">
-        <v>35802</v>
-      </c>
-      <c r="B374" s="5">
-        <v>125.88491999999999</v>
-      </c>
-      <c r="C374" s="5">
-        <v>123.46892</v>
-      </c>
-      <c r="D374" s="5">
-        <v>154.37291999999999</v>
-      </c>
-      <c r="E374" s="5">
-        <v>154.37291999999999</v>
-      </c>
-      <c r="F374" s="5">
-        <v>154.37291999999999</v>
-      </c>
-      <c r="G374" s="5">
-        <v>189.94991999999999</v>
-      </c>
-      <c r="H374" s="5">
-        <v>190.35792000000001</v>
-      </c>
-      <c r="I374" s="5">
-        <v>190.35792000000001</v>
-      </c>
+      <c r="K373" s="5"/>
+      <c r="L373" s="5"/>
+      <c r="M373" s="5"/>
+      <c r="N373" s="5"/>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5"/>
+      <c r="V373" s="5"/>
+      <c r="W373" s="5"/>
+      <c r="X373" s="5"/>
+      <c r="Y373" s="5"/>
+    </row>
+    <row r="374" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A374" s="2"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="5"/>
       <c r="J374" s="5"/>
-      <c r="K374" s="5">
-        <v>192.37791999999999</v>
-      </c>
-      <c r="L374" s="5">
-        <v>132.92392000000001</v>
-      </c>
-      <c r="M374" s="5">
-        <v>133.60391999999999</v>
-      </c>
-      <c r="N374" s="5">
-        <v>129.62492</v>
-      </c>
-      <c r="O374" s="5">
-        <v>129.62492</v>
-      </c>
-      <c r="P374" s="5">
-        <v>129.62492</v>
-      </c>
-      <c r="Q374" s="5">
-        <v>129.62492</v>
-      </c>
-      <c r="R374" s="5">
-        <v>129.62492</v>
-      </c>
-      <c r="S374" s="5">
-        <v>129.62492</v>
-      </c>
-      <c r="T374" s="5">
-        <v>138.75891999999999</v>
-      </c>
-      <c r="U374" s="5">
-        <v>140.08792</v>
-      </c>
-      <c r="V374" s="5">
-        <v>136.88692</v>
-      </c>
-      <c r="W374" s="5">
-        <v>134.43492000000001</v>
-      </c>
-      <c r="X374" s="5">
-        <v>130.32192000000001</v>
-      </c>
-      <c r="Y374" s="5">
-        <v>127.27392</v>
-      </c>
-    </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A375" s="2">
-        <v>35803</v>
-      </c>
-      <c r="B375" s="5">
-        <v>127.17892000000001</v>
-      </c>
-      <c r="C375" s="5">
-        <v>124.78492</v>
-      </c>
-      <c r="D375" s="5">
-        <v>124.78492</v>
-      </c>
-      <c r="E375" s="5">
-        <v>127.17892000000001</v>
-      </c>
-      <c r="F375" s="5">
-        <v>124.78492</v>
-      </c>
-      <c r="G375" s="5">
-        <v>124.78492</v>
-      </c>
-      <c r="H375" s="5">
-        <v>127.17892000000001</v>
-      </c>
-      <c r="I375" s="5">
-        <v>129.89192</v>
-      </c>
-      <c r="J375" s="5">
-        <v>196.57292000000001</v>
-      </c>
-      <c r="K375" s="5">
-        <v>136.55691999999999</v>
-      </c>
-      <c r="L375" s="5">
-        <v>136.55691999999999</v>
-      </c>
-      <c r="M375" s="5">
-        <v>136.55691999999999</v>
-      </c>
-      <c r="N375" s="5">
-        <v>197.63892000000001</v>
-      </c>
-      <c r="O375" s="5">
-        <v>133.34791999999999</v>
-      </c>
-      <c r="P375" s="5">
-        <v>133.34791999999999</v>
-      </c>
-      <c r="Q375" s="5">
-        <v>133.34791999999999</v>
-      </c>
-      <c r="R375" s="5">
-        <v>133.34791999999999</v>
-      </c>
-      <c r="S375" s="5">
-        <v>130.91792000000001</v>
-      </c>
-      <c r="T375" s="5">
-        <v>139.76591999999999</v>
-      </c>
-      <c r="U375" s="5">
-        <v>139.76591999999999</v>
-      </c>
-      <c r="V375" s="5">
-        <v>139.76591999999999</v>
-      </c>
-      <c r="W375" s="5">
-        <v>130.91792000000001</v>
-      </c>
-      <c r="X375" s="5">
-        <v>129.98292000000001</v>
-      </c>
-      <c r="Y375" s="5">
-        <v>128.58892</v>
-      </c>
-    </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A376" s="2">
-        <v>36145</v>
-      </c>
-      <c r="B376" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="C376" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="D376" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="E376" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="F376" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="G376" s="5">
-        <v>19.81615</v>
-      </c>
-      <c r="H376" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="I376" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="J376" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="K376" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="L376" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="M376" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="N376" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="O376" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="P376" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="Q376" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="R376" s="5">
-        <v>24.146150000000002</v>
-      </c>
-      <c r="S376" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="T376" s="5">
-        <v>24.146150000000002</v>
-      </c>
-      <c r="U376" s="5">
-        <v>24.146150000000002</v>
-      </c>
-      <c r="V376" s="5">
-        <v>24.146150000000002</v>
-      </c>
-      <c r="W376" s="5">
-        <v>24.146150000000002</v>
-      </c>
-      <c r="X376" s="5">
-        <v>24.146150000000002</v>
-      </c>
-      <c r="Y376" s="5">
-        <v>21.146150000000002</v>
-      </c>
-    </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A377" s="2">
-        <v>36146</v>
-      </c>
-      <c r="B377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="C377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="D377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="E377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="F377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="G377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="H377" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="I377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="J377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="K377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="L377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="M377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="N377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="O377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="P377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="Q377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="R377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="S377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="T377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="U377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="V377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="W377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="X377" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="Y377" s="5">
-        <v>21.146150000000002</v>
-      </c>
-    </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A378" s="2">
-        <v>36147</v>
-      </c>
-      <c r="B378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="C378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="D378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="E378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="F378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="G378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="H378" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="I378" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="J378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="K378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="L378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="M378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="N378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="O378" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="P378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="Q378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="R378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="S378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="T378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="U378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="V378" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="W378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="X378" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="Y378" s="5">
-        <v>21.146150000000002</v>
-      </c>
-    </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A379" s="2">
-        <v>36148</v>
-      </c>
-      <c r="B379" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="C379" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="D379" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="E379" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="F379" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="G379" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="H379" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="I379" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="J379" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="K379" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="L379" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="M379" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="N379" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="O379" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="P379" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="Q379" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="R379" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="S379" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="T379" s="5">
-        <v>36.411150000000006</v>
-      </c>
-      <c r="U379" s="5">
-        <v>36.411150000000006</v>
-      </c>
-      <c r="V379" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="W379" s="5">
-        <v>36.411150000000006</v>
-      </c>
-      <c r="X379" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="Y379" s="5">
-        <v>23.146150000000002</v>
-      </c>
-    </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A380" s="2">
-        <v>36149</v>
-      </c>
-      <c r="B380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="C380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="D380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="E380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="F380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="G380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="H380" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="I380" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="J380" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="K380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="L380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="M380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="N380" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="O380" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="P380" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="Q380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="R380" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="S380" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="T380" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="U380" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="V380" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="W380" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="X380" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="Y380" s="5">
-        <v>19.81915</v>
-      </c>
-    </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A381" s="2">
-        <v>36150</v>
-      </c>
-      <c r="B381" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="C381" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="D381" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="E381" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="F381" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="G381" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="H381" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="I381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="J381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="K381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="L381" s="5">
-        <v>36.146150000000006</v>
-      </c>
-      <c r="M381" s="5">
-        <v>36.146150000000006</v>
-      </c>
-      <c r="N381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="O381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="P381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="Q381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="R381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="S381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="T381" s="5">
-        <v>36.146150000000006</v>
-      </c>
-      <c r="U381" s="5">
-        <v>36.146150000000006</v>
-      </c>
-      <c r="V381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="W381" s="5">
-        <v>36.146150000000006</v>
-      </c>
-      <c r="X381" s="5">
-        <v>31.146150000000002</v>
-      </c>
-      <c r="Y381" s="5">
-        <v>21.146150000000002</v>
-      </c>
-    </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A382" s="2">
-        <v>36151</v>
-      </c>
-      <c r="B382" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="C382" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="D382" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="E382" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="F382" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="G382" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="H382" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="I382" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="J382" s="5">
-        <v>29.146150000000002</v>
-      </c>
-      <c r="K382" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="L382" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="M382" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="N382" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="O382" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="P382" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="Q382" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="R382" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="S382" s="5">
-        <v>21.146150000000002</v>
-      </c>
-      <c r="T382" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="U382" s="5">
-        <v>30.646150000000002</v>
-      </c>
-      <c r="V382" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="W382" s="5">
-        <v>30.646150000000002</v>
-      </c>
-      <c r="X382" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="Y382" s="5">
-        <v>21.146150000000002</v>
-      </c>
-    </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A383" s="2">
-        <v>36152</v>
-      </c>
-      <c r="B383" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="C383" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="D383" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="E383" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="F383" s="5">
-        <v>19.796150000000001</v>
-      </c>
-      <c r="G383" s="5">
-        <v>19.81615</v>
-      </c>
-      <c r="H383" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="I383" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="J383" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="K383" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="L383" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="M383" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="N383" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="O383" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="P383" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="Q383" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="R383" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="S383" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="T383" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="U383" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="V383" s="5">
-        <v>23.146150000000002</v>
-      </c>
-      <c r="W383" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="X383" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="Y383" s="5">
-        <v>19.81915</v>
-      </c>
-    </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A384" s="2">
-        <v>36153</v>
-      </c>
-      <c r="B384" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="C384" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="D384" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="E384" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="F384" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="G384" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="H384" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="I384" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="J384" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="K384" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="L384" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="M384" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="N384" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="O384" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="P384" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="Q384" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="R384" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="S384" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="T384" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="U384" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="V384" s="5">
-        <v>19.81915</v>
-      </c>
-      <c r="W384" s="5">
-        <v>24.946150000000003</v>
-      </c>
-      <c r="X384" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="Y384" s="5">
-        <v>19.821149999999999</v>
-      </c>
-    </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A385" s="2">
-        <v>36154</v>
-      </c>
-      <c r="B385" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="C385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="D385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="E385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="F385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="G385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="H385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="I385" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="J385" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="K385" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="L385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="M385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="N385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="O385" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="P385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="Q385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="R385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="S385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="T385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="U385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="V385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="W385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="X385" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Y385" s="5">
-        <v>19.821149999999999</v>
-      </c>
-    </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A386" s="2">
-        <v>36155</v>
-      </c>
-      <c r="B386" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="C386" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="D386" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="E386" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="F386" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="G386" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="H386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="I386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="J386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="K386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="L386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="M386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="N386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="O386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="P386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Q386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="R386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="S386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="T386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="U386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="V386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="W386" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="X386" s="5">
-        <v>25.146150000000002</v>
-      </c>
-      <c r="Y386" s="5">
-        <v>24.646150000000002</v>
-      </c>
-    </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A387" s="2">
-        <v>36156</v>
-      </c>
-      <c r="B387" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="C387" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="D387" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="E387" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="F387" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="G387" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="H387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="I387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="J387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="K387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="L387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="M387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="N387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="O387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="P387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Q387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="R387" s="5">
-        <v>19.821149999999999</v>
-      </c>
-      <c r="S387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="T387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="U387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="V387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="W387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="X387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Y387" s="5">
-        <v>24.646150000000002</v>
-      </c>
-    </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
-        <v>36157</v>
-      </c>
-      <c r="B388" s="5">
-        <v>19.786149999999999</v>
-      </c>
-      <c r="C388" s="5">
-        <v>19.786149999999999</v>
-      </c>
-      <c r="D388" s="5">
-        <v>19.786149999999999</v>
-      </c>
-      <c r="E388" s="5">
-        <v>19.786149999999999</v>
-      </c>
-      <c r="F388" s="5">
-        <v>19.786149999999999</v>
-      </c>
-      <c r="G388" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="H388" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="I388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="J388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="K388" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="L388" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="M388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="N388" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="O388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="P388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Q388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="R388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="S388" s="5">
-        <v>19.81615</v>
-      </c>
-      <c r="T388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="U388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="V388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="W388" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="X388" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Y388" s="5">
-        <v>19.817150000000002</v>
-      </c>
-    </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A389" s="2">
-        <v>36158</v>
-      </c>
-      <c r="B389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="C389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="D389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="E389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="F389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="G389" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="H389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="I389" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="J389" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="K389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="L389" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="M389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="N389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="O389" s="5">
-        <v>29.146150000000002</v>
-      </c>
-      <c r="P389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Q389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="R389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="S389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="T389" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="U389" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="V389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="W389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="X389" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Y389" s="5">
-        <v>19.817150000000002</v>
-      </c>
-    </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A390" s="2">
-        <v>36159</v>
-      </c>
-      <c r="B390" s="5">
-        <v>29.146150000000002</v>
-      </c>
-      <c r="C390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="D390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="E390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="F390" s="5">
-        <v>29.146150000000002</v>
-      </c>
-      <c r="G390" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="H390" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="I390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="J390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="K390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="L390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="M390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="N390" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="O390" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="P390" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="Q390" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="R390" s="5">
-        <v>19.817150000000002</v>
-      </c>
-      <c r="S390" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="T390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="U390" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="V390" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="W390" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="X390" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="Y390" s="5">
-        <v>19.817150000000002</v>
-      </c>
-    </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
-        <v>36160</v>
-      </c>
-      <c r="B391" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="C391" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="D391" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="E391" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="F391" s="5">
-        <v>19.818149999999999</v>
-      </c>
-      <c r="G391" s="5">
-        <v>29.146150000000002</v>
-      </c>
-      <c r="H391" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="I391" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="J391" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="K391" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="L391" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="M391" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="N391" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="O391" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="P391" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="Q391" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="R391" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="S391" s="5">
-        <v>29.146150000000002</v>
-      </c>
-      <c r="T391" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="U391" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="V391" s="5">
-        <v>24.646150000000002</v>
-      </c>
-      <c r="W391" s="5">
-        <v>30.146150000000002</v>
-      </c>
-      <c r="X391" s="5">
-        <v>29.146150000000002</v>
-      </c>
-      <c r="Y391" s="5">
-        <v>24.646150000000002</v>
-      </c>
+      <c r="K374" s="5"/>
+      <c r="L374" s="5"/>
+      <c r="M374" s="5"/>
+      <c r="N374" s="5"/>
+      <c r="O374" s="5"/>
+      <c r="P374" s="5"/>
+      <c r="Q374" s="5"/>
+      <c r="R374" s="5"/>
+      <c r="S374" s="5"/>
+      <c r="T374" s="5"/>
+      <c r="U374" s="5"/>
+      <c r="V374" s="5"/>
+      <c r="W374" s="5"/>
+      <c r="X374" s="5"/>
+      <c r="Y374" s="5"/>
+    </row>
+    <row r="375" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A375" s="2"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="5"/>
+      <c r="J375" s="5"/>
+      <c r="K375" s="5"/>
+      <c r="L375" s="5"/>
+      <c r="M375" s="5"/>
+      <c r="N375" s="5"/>
+      <c r="O375" s="5"/>
+      <c r="P375" s="5"/>
+      <c r="Q375" s="5"/>
+      <c r="R375" s="5"/>
+      <c r="S375" s="5"/>
+      <c r="T375" s="5"/>
+      <c r="U375" s="5"/>
+      <c r="V375" s="5"/>
+      <c r="W375" s="5"/>
+      <c r="X375" s="5"/>
+      <c r="Y375" s="5"/>
+    </row>
+    <row r="376" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A376" s="2"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5"/>
+      <c r="K376" s="5"/>
+      <c r="L376" s="5"/>
+      <c r="M376" s="5"/>
+      <c r="N376" s="5"/>
+      <c r="O376" s="5"/>
+      <c r="P376" s="5"/>
+      <c r="Q376" s="5"/>
+      <c r="R376" s="5"/>
+      <c r="S376" s="5"/>
+      <c r="T376" s="5"/>
+      <c r="U376" s="5"/>
+      <c r="V376" s="5"/>
+      <c r="W376" s="5"/>
+      <c r="X376" s="5"/>
+      <c r="Y376" s="5"/>
+    </row>
+    <row r="377" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A377" s="2"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
+      <c r="J377" s="5"/>
+      <c r="K377" s="5"/>
+      <c r="L377" s="5"/>
+      <c r="M377" s="5"/>
+      <c r="N377" s="5"/>
+      <c r="O377" s="5"/>
+      <c r="P377" s="5"/>
+      <c r="Q377" s="5"/>
+      <c r="R377" s="5"/>
+      <c r="S377" s="5"/>
+      <c r="T377" s="5"/>
+      <c r="U377" s="5"/>
+      <c r="V377" s="5"/>
+      <c r="W377" s="5"/>
+      <c r="X377" s="5"/>
+      <c r="Y377" s="5"/>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A378" s="2"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5"/>
+      <c r="K378" s="5"/>
+      <c r="L378" s="5"/>
+      <c r="M378" s="5"/>
+      <c r="N378" s="5"/>
+      <c r="O378" s="5"/>
+      <c r="P378" s="5"/>
+      <c r="Q378" s="5"/>
+      <c r="R378" s="5"/>
+      <c r="S378" s="5"/>
+      <c r="T378" s="5"/>
+      <c r="U378" s="5"/>
+      <c r="V378" s="5"/>
+      <c r="W378" s="5"/>
+      <c r="X378" s="5"/>
+      <c r="Y378" s="5"/>
+    </row>
+    <row r="379" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A379" s="2"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="5"/>
+      <c r="M379" s="5"/>
+      <c r="N379" s="5"/>
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+      <c r="Q379" s="5"/>
+      <c r="R379" s="5"/>
+      <c r="S379" s="5"/>
+      <c r="T379" s="5"/>
+      <c r="U379" s="5"/>
+      <c r="V379" s="5"/>
+      <c r="W379" s="5"/>
+      <c r="X379" s="5"/>
+      <c r="Y379" s="5"/>
+    </row>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A380" s="2"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5"/>
+      <c r="K380" s="5"/>
+      <c r="L380" s="5"/>
+      <c r="M380" s="5"/>
+      <c r="N380" s="5"/>
+      <c r="O380" s="5"/>
+      <c r="P380" s="5"/>
+      <c r="Q380" s="5"/>
+      <c r="R380" s="5"/>
+      <c r="S380" s="5"/>
+      <c r="T380" s="5"/>
+      <c r="U380" s="5"/>
+      <c r="V380" s="5"/>
+      <c r="W380" s="5"/>
+      <c r="X380" s="5"/>
+      <c r="Y380" s="5"/>
+    </row>
+    <row r="381" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A381" s="2"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="5"/>
+      <c r="J381" s="5"/>
+      <c r="K381" s="5"/>
+      <c r="L381" s="5"/>
+      <c r="M381" s="5"/>
+      <c r="N381" s="5"/>
+      <c r="O381" s="5"/>
+      <c r="P381" s="5"/>
+      <c r="Q381" s="5"/>
+      <c r="R381" s="5"/>
+      <c r="S381" s="5"/>
+      <c r="T381" s="5"/>
+      <c r="U381" s="5"/>
+      <c r="V381" s="5"/>
+      <c r="W381" s="5"/>
+      <c r="X381" s="5"/>
+      <c r="Y381" s="5"/>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A382" s="2"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="5"/>
+      <c r="M382" s="5"/>
+      <c r="N382" s="5"/>
+      <c r="O382" s="5"/>
+      <c r="P382" s="5"/>
+      <c r="Q382" s="5"/>
+      <c r="R382" s="5"/>
+      <c r="S382" s="5"/>
+      <c r="T382" s="5"/>
+      <c r="U382" s="5"/>
+      <c r="V382" s="5"/>
+      <c r="W382" s="5"/>
+      <c r="X382" s="5"/>
+      <c r="Y382" s="5"/>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A383" s="2"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="5"/>
+      <c r="J383" s="5"/>
+      <c r="K383" s="5"/>
+      <c r="L383" s="5"/>
+      <c r="M383" s="5"/>
+      <c r="N383" s="5"/>
+      <c r="O383" s="5"/>
+      <c r="P383" s="5"/>
+      <c r="Q383" s="5"/>
+      <c r="R383" s="5"/>
+      <c r="S383" s="5"/>
+      <c r="T383" s="5"/>
+      <c r="U383" s="5"/>
+      <c r="V383" s="5"/>
+      <c r="W383" s="5"/>
+      <c r="X383" s="5"/>
+      <c r="Y383" s="5"/>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A384" s="2"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="5"/>
+      <c r="J384" s="5"/>
+      <c r="K384" s="5"/>
+      <c r="L384" s="5"/>
+      <c r="M384" s="5"/>
+      <c r="N384" s="5"/>
+      <c r="O384" s="5"/>
+      <c r="P384" s="5"/>
+      <c r="Q384" s="5"/>
+      <c r="R384" s="5"/>
+      <c r="S384" s="5"/>
+      <c r="T384" s="5"/>
+      <c r="U384" s="5"/>
+      <c r="V384" s="5"/>
+      <c r="W384" s="5"/>
+      <c r="X384" s="5"/>
+      <c r="Y384" s="5"/>
+    </row>
+    <row r="385" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A385" s="2"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
+      <c r="L385" s="5"/>
+      <c r="M385" s="5"/>
+      <c r="N385" s="5"/>
+      <c r="O385" s="5"/>
+      <c r="P385" s="5"/>
+      <c r="Q385" s="5"/>
+      <c r="R385" s="5"/>
+      <c r="S385" s="5"/>
+      <c r="T385" s="5"/>
+      <c r="U385" s="5"/>
+      <c r="V385" s="5"/>
+      <c r="W385" s="5"/>
+      <c r="X385" s="5"/>
+      <c r="Y385" s="5"/>
+    </row>
+    <row r="386" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A386" s="2"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5"/>
+      <c r="K386" s="5"/>
+      <c r="L386" s="5"/>
+      <c r="M386" s="5"/>
+      <c r="N386" s="5"/>
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
+      <c r="Q386" s="5"/>
+      <c r="R386" s="5"/>
+      <c r="S386" s="5"/>
+      <c r="T386" s="5"/>
+      <c r="U386" s="5"/>
+      <c r="V386" s="5"/>
+      <c r="W386" s="5"/>
+      <c r="X386" s="5"/>
+      <c r="Y386" s="5"/>
+    </row>
+    <row r="387" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A387" s="2"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="5"/>
+      <c r="J387" s="5"/>
+      <c r="K387" s="5"/>
+      <c r="L387" s="5"/>
+      <c r="M387" s="5"/>
+      <c r="N387" s="5"/>
+      <c r="O387" s="5"/>
+      <c r="P387" s="5"/>
+      <c r="Q387" s="5"/>
+      <c r="R387" s="5"/>
+      <c r="S387" s="5"/>
+      <c r="T387" s="5"/>
+      <c r="U387" s="5"/>
+      <c r="V387" s="5"/>
+      <c r="W387" s="5"/>
+      <c r="X387" s="5"/>
+      <c r="Y387" s="5"/>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A388" s="2"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
+      <c r="J388" s="5"/>
+      <c r="K388" s="5"/>
+      <c r="L388" s="5"/>
+      <c r="M388" s="5"/>
+      <c r="N388" s="5"/>
+      <c r="O388" s="5"/>
+      <c r="P388" s="5"/>
+      <c r="Q388" s="5"/>
+      <c r="R388" s="5"/>
+      <c r="S388" s="5"/>
+      <c r="T388" s="5"/>
+      <c r="U388" s="5"/>
+      <c r="V388" s="5"/>
+      <c r="W388" s="5"/>
+      <c r="X388" s="5"/>
+      <c r="Y388" s="5"/>
+    </row>
+    <row r="389" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A389" s="2"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="5"/>
+      <c r="J389" s="5"/>
+      <c r="K389" s="5"/>
+      <c r="L389" s="5"/>
+      <c r="M389" s="5"/>
+      <c r="N389" s="5"/>
+      <c r="O389" s="5"/>
+      <c r="P389" s="5"/>
+      <c r="Q389" s="5"/>
+      <c r="R389" s="5"/>
+      <c r="S389" s="5"/>
+      <c r="T389" s="5"/>
+      <c r="U389" s="5"/>
+      <c r="V389" s="5"/>
+      <c r="W389" s="5"/>
+      <c r="X389" s="5"/>
+      <c r="Y389" s="5"/>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A390" s="2"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
+      <c r="I390" s="5"/>
+      <c r="J390" s="5"/>
+      <c r="K390" s="5"/>
+      <c r="L390" s="5"/>
+      <c r="M390" s="5"/>
+      <c r="N390" s="5"/>
+      <c r="O390" s="5"/>
+      <c r="P390" s="5"/>
+      <c r="Q390" s="5"/>
+      <c r="R390" s="5"/>
+      <c r="S390" s="5"/>
+      <c r="T390" s="5"/>
+      <c r="U390" s="5"/>
+      <c r="V390" s="5"/>
+      <c r="W390" s="5"/>
+      <c r="X390" s="5"/>
+      <c r="Y390" s="5"/>
+    </row>
+    <row r="391" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A391" s="2"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="5"/>
+      <c r="J391" s="5"/>
+      <c r="K391" s="5"/>
+      <c r="L391" s="5"/>
+      <c r="M391" s="5"/>
+      <c r="N391" s="5"/>
+      <c r="O391" s="5"/>
+      <c r="P391" s="5"/>
+      <c r="Q391" s="5"/>
+      <c r="R391" s="5"/>
+      <c r="S391" s="5"/>
+      <c r="T391" s="5"/>
+      <c r="U391" s="5"/>
+      <c r="V391" s="5"/>
+      <c r="W391" s="5"/>
+      <c r="X391" s="5"/>
+      <c r="Y391" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30566,6 +29474,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010081F15821DEA74440826E0ABE6ED0431E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7e9496f45e65ed9a2f15ea6e66860ba1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1053b607-01f4-49d3-996a-42706195cb59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65b945c2a5fc5063e2f35c66e1076b14" ns2:_="">
     <xsd:import namespace="1053b607-01f4-49d3-996a-42706195cb59"/>
@@ -30701,15 +29618,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -30720,6 +29628,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49514CEA-DE81-4CF9-AEF3-7E97DFEFA176}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2120BAE-5CAF-4F99-9A5E-1EF3D9EFA9A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30737,14 +29653,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49514CEA-DE81-4CF9-AEF3-7E97DFEFA176}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F31C236-CAF5-4E8E-A041-5B898A077FF7}">
   <ds:schemaRefs>
